--- a/model_fold_stage_result.xlsx
+++ b/model_fold_stage_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ADS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fragment\Desktop\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B95CB03-9C01-4982-A318-AA61F6ECAC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA9F48E-FE1B-4893-91C8-54AC34D40662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="1" r:id="rId1"/>
@@ -77,28 +77,34 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,12 +119,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -404,16 +419,16 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,35 +442,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>4.35447776122923E-2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>4.17015183909802E-2</v>
       </c>
       <c r="D2" s="1">
         <v>4.1978730411761103E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>4.67813131924181E-2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>4.0251843369313402E-2</v>
       </c>
       <c r="D3" s="1">
         <v>4.0277619232297598E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -465,25 +480,25 @@
       <c r="C4" s="1">
         <v>4.0467551522358598E-2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>4.0407098444751398E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>4.45598643706012E-2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>4.1610612875875898E-2</v>
       </c>
       <c r="D5" s="1">
         <v>4.1765212533727503E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -493,32 +508,32 @@
       <c r="C6" s="1">
         <v>7.3461279778177194E-2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>7.3063598077966099E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>4.2782100786100397E-2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>4.1369780840907103E-2</v>
       </c>
       <c r="D7" s="1">
         <v>4.1525350646631903E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>4.2096814222134397E-2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>4.1558228469477203E-2</v>
       </c>
       <c r="D8" s="1">
@@ -535,17 +550,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A4ED2F-2FBF-4EAD-9359-A58118F6174F}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -559,21 +574,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>3.0857736043711701E-2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>2.8985376143109299E-2</v>
       </c>
       <c r="D2" s="2">
         <v>2.8997826947794601E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -583,39 +598,39 @@
       <c r="C3" s="2">
         <v>0.16784646765274</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>0.16433366848380501</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>3.4565775317313703E-2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>3.4213563376970603E-2</v>
       </c>
       <c r="D4" s="2">
         <v>3.4243537687406303E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>3.2175168864416202E-2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>2.9622853987736099E-2</v>
       </c>
       <c r="D5" s="2">
         <v>2.98101863294153E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -625,25 +640,25 @@
       <c r="C6" s="2">
         <v>6.0531692986362698E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>5.9337025884397897E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>3.2344323186047297E-2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>3.14423847532245E-2</v>
       </c>
-      <c r="D7" s="2">
-        <v>3.14423847532245E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="4">
+        <v>3.11747319024289E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -653,7 +668,7 @@
       <c r="C8" s="2">
         <v>3.2135101564757101E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>3.2108899144395103E-2</v>
       </c>
     </row>
@@ -668,17 +683,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A5CEFD-8ED7-4ABE-8FEA-7CC94A182F49}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -692,7 +707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -702,11 +717,11 @@
       <c r="C2" s="2">
         <v>3.04709468936783E-2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>3.0208600433425901E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -716,11 +731,11 @@
       <c r="C3" s="2">
         <v>0.16471161846082599</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>0.16096000744679501</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -730,11 +745,11 @@
       <c r="C4" s="2">
         <v>3.3587990051616098E-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>3.3568887599319301E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -744,11 +759,11 @@
       <c r="C5" s="2">
         <v>3.1444521015038002E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>3.10756828932858E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -758,29 +773,29 @@
       <c r="C6" s="2">
         <v>6.4299020211038505E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>6.4048072465572106E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>3.6290160562885102E-2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>3.4816344788332503E-2</v>
       </c>
       <c r="D7" s="2">
         <v>3.49020785567484E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>3.2108899144395103E-2</v>
       </c>
       <c r="C8" s="2">
